--- a/public/SponsorSynq_Competitor_Comparison.xlsx
+++ b/public/SponsorSynq_Competitor_Comparison.xlsx
@@ -21,7 +21,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -68,8 +68,12 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <i val="1"/>
+      <color rgb="0070AD47"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill/>
     </fill>
@@ -120,6 +124,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00E2EFDA"/>
+        <bgColor rgb="00E2EFDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FF9900"/>
         <bgColor rgb="00FF9900"/>
       </patternFill>
@@ -149,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -190,13 +200,16 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1891,7 +1904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1977,281 +1990,434 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>Sponsor Matching</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
+    <row r="10" ht="120" customHeight="1">
+      <c r="A10" s="14" t="inlineStr">
+        <is>
+          <t>✓ Sponsor Matching</t>
+        </is>
+      </c>
+      <c r="B10" s="14" t="inlineStr">
         <is>
           <t>Build excellent AI matching algorithm</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" s="14" t="inlineStr">
         <is>
           <t>Our 12% commission must feel justified by quality matches</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D10" s="14" t="inlineStr">
+        <is>
+          <t>COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="120" customHeight="1">
+      <c r="A11" s="14" t="inlineStr">
+        <is>
+          <t>✓ Verification System</t>
+        </is>
+      </c>
+      <c r="B11" s="14" t="inlineStr">
+        <is>
+          <t>Robust photo upload + attendance tracking</t>
+        </is>
+      </c>
+      <c r="C11" s="14" t="inlineStr">
+        <is>
+          <t>Sponsors need proof their money worked</t>
+        </is>
+      </c>
+      <c r="D11" s="14" t="inlineStr">
+        <is>
+          <t>COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="120" customHeight="1">
+      <c r="A12" s="14" t="inlineStr">
+        <is>
+          <t>✓ Dashboard Savings Display</t>
+        </is>
+      </c>
+      <c r="B12" s="14" t="inlineStr">
+        <is>
+          <t>Show subscribers monthly savings vs 5%</t>
+        </is>
+      </c>
+      <c r="C12" s="14" t="inlineStr">
+        <is>
+          <t>Psychological win every month</t>
+        </is>
+      </c>
+      <c r="D12" s="14" t="inlineStr">
+        <is>
+          <t>COMPLETED</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="120" customHeight="1">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Ambassador Visibility</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Prominently feature program in UI</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Users won't discover it unless we surface it</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>Verification System</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Robust photo upload + attendance tracking</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>Sponsors need proof their money worked</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
+    <row r="14" ht="120" customHeight="1">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Event Collaboration/Co-hosting</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Multi-host event collaboration system:
+• Primary &amp; secondary event hosts
+• Real-time ticket revenue tracking for all hosts
+• Customizable revenue split (50/50, 60/40, etc.)
+• Primary host controls fund distribution
+• Venue payment tracking/metrics
+• Multi-city tour dashboard
+• Track all events under one tour umbrella</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Game-changer for large-scale events and tours. Creates network effects - hosts bring other hosts. Differentiates us from all competitors who only support single-host events.</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>Dashboard Savings Display</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Show subscribers monthly savings vs 5%</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>Psychological win every month</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
+    <row r="15" ht="120" customHeight="1">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Promoter Referral System</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Role-based promoter program:
+• Event hosts assign 'promoter' roles
+• Unique tracking links/QR codes per promoter
+• Track ticket sales by promoter link
+• Automatic commission payouts
+• Works like affiliate program but for event promotion
+• Promoters share on Instagram/TikTok stories</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Viral growth engine. Turns every event into distributed sales team. Promoters are incentivized to drive ticket sales. Event hosts get free marketing.</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>Ambassador Visibility</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Prominently feature program in UI</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>Users won't discover it unless we surface it</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
+    <row r="16" ht="120" customHeight="1">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Landing Page Overhaul</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>PRICING: Only 2 tiers:
+• Free: Unlimited events, basic features
+• $100/mo: Money-making features (was $19)
+MESSAGING:
+• Focus on ROI, not features
+• 'Save X, Make Y' psychology
+• Fewer words, clearer value
+• Show savings/earnings potential per feature
+COMPETITOR COMPARISON:
+• REMOVE from landing page entirely
+• Move to post-signup dashboard
+• Only show after they're already users
+• Prevent competitors from copying our strategy</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Simplicity converts better. People don't want subscriptions - they want to 'pay when they get paid' or see clear ROI. Hiding competitor intel protects our competitive advantage.</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="5" customHeight="1"/>
-    <row r="15">
-      <c r="A15" s="14" t="inlineStr">
+    <row r="17" ht="120" customHeight="1">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Venue Partnership System</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Venue integration features:
+• Venues can create accounts
+• Event hosts connect their venue
+• Transparent revenue sharing dashboard
+• Track bar/food/door splits in real-time
+• Simple fund distribution
+VENUE LOCK-IN STRATEGY:
+• Partner with venues to require SponsorSynq
+• 'Want to use our venue? Use SponsorSynq'
+• Creates vendor lock-in
+• Eliminates competition with Eventbrite/Posh
+• Market domination through venue partnerships</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>This is the ULTIMATE competitive moat. If venues require SponsorSynq, event hosts have no choice. We stop competing on features and own the distribution channel. Venue adoption = market domination.</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="120" customHeight="1">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Revenue Stream Documentation</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Comprehensive revenue analysis:
+• Document ALL current revenue streams
+• Platform fee, processing, sponsorship commission, etc.
+• Strategy for free events (no ticket sales)
+• How to monetize users who don't charge for tickets?
+• Options: Sponsorship-only commission, require subscription, tiered free limits
+• Question: Is free platform usage okay if it brings brand awareness?
+• Alternative revenue from free event hosts?</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>Need clarity on business model edge cases. Free events still have value (brand awareness, sponsor discovery) but need strategy to ensure sustainable revenue. Must balance growth with monetization.</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="5" customHeight="1"/>
+    <row r="20">
+      <c r="A20" s="15" t="inlineStr">
         <is>
           <t>MEDIUM PRIORITY</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="15" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="16" t="inlineStr">
         <is>
           <t>Area</t>
         </is>
       </c>
-      <c r="B16" s="15" t="inlineStr">
+      <c r="B21" s="16" t="inlineStr">
         <is>
           <t>What To Build/Do</t>
         </is>
       </c>
-      <c r="C16" s="15" t="inlineStr">
+      <c r="C21" s="16" t="inlineStr">
         <is>
           <t>Why It Matters</t>
         </is>
       </c>
-      <c r="D16" s="15" t="inlineStr">
+      <c r="D21" s="16" t="inlineStr">
         <is>
           <t>Priority</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>Performance Tracking</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
         <is>
           <t>Track Boost &amp; Featured Placement results</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>Need data to prove these upgrades work</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
+      <c r="D22" s="3" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>Instant Payout Cap</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B23" s="3" t="inlineStr">
         <is>
           <t>Implement 1.5% with $15 max</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>Makes instant payout attractive for large payouts</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr">
+      <c r="D23" s="3" t="inlineStr">
         <is>
           <t>MEDIUM</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>Annual Subscription</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>Offer $190/year option</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>Locks in committed hosts, improves predictability</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>Tiered Boost Options</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>$10/3d, $15/7d, $25/14d</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>Flexibility for different event timelines</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="5" customHeight="1"/>
-    <row r="22">
-      <c r="A22" s="16" t="inlineStr">
-        <is>
-          <t>LOW PRIORITY</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="17" t="inlineStr">
-        <is>
-          <t>Area</t>
-        </is>
-      </c>
-      <c r="B23" s="17" t="inlineStr">
-        <is>
-          <t>What To Build/Do</t>
-        </is>
-      </c>
-      <c r="C23" s="17" t="inlineStr">
-        <is>
-          <t>Why It Matters</t>
-        </is>
-      </c>
-      <c r="D23" s="17" t="inlineStr">
-        <is>
-          <t>Priority</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Enterprise Compliance</t>
+          <t>Annual Subscription</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Approval workflows, audit trails, SIS integration</t>
+          <t>Offer $190/year option</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>Required for university sales</t>
+          <t>Locks in committed hosts, improves predictability</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>MEDIUM</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
+          <t>Tiered Boost Options</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>$10/3d, $15/7d, $25/14d</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>Flexibility for different event timelines</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="5" customHeight="1"/>
+    <row r="27">
+      <c r="A27" s="17" t="inlineStr">
+        <is>
+          <t>LOW PRIORITY</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="18" t="inlineStr">
+        <is>
+          <t>Area</t>
+        </is>
+      </c>
+      <c r="B28" s="18" t="inlineStr">
+        <is>
+          <t>What To Build/Do</t>
+        </is>
+      </c>
+      <c r="C28" s="18" t="inlineStr">
+        <is>
+          <t>Why It Matters</t>
+        </is>
+      </c>
+      <c r="D28" s="18" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>Enterprise Compliance</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Approval workflows, audit trails, SIS integration</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>Required for university sales</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
           <t>Leaderboards</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
+      <c r="B30" s="3" t="inlineStr">
         <is>
           <t>Show top ambassadors</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
+      <c r="C30" s="3" t="inlineStr">
         <is>
           <t>Creates competition, shows what's possible</t>
         </is>
       </c>
-      <c r="D25" s="3" t="inlineStr">
+      <c r="D30" s="3" t="inlineStr">
         <is>
           <t>LOW</t>
         </is>
@@ -2261,12 +2427,12 @@
   <mergeCells count="9">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A22:D22"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/public/SponsorSynq_Competitor_Comparison.xlsx
+++ b/public/SponsorSynq_Competitor_Comparison.xlsx
@@ -21,7 +21,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -68,12 +68,8 @@
     <font>
       <b val="1"/>
     </font>
-    <font>
-      <i val="1"/>
-      <color rgb="0070AD47"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill/>
     </fill>
@@ -124,12 +120,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2EFDA"/>
-        <bgColor rgb="00E2EFDA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FF9900"/>
         <bgColor rgb="00FF9900"/>
       </patternFill>
@@ -159,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -200,16 +190,13 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1904,7 +1891,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1991,100 +1978,12 @@
       </c>
     </row>
     <row r="10" ht="120" customHeight="1">
-      <c r="A10" s="14" t="inlineStr">
-        <is>
-          <t>✓ Sponsor Matching</t>
-        </is>
-      </c>
-      <c r="B10" s="14" t="inlineStr">
-        <is>
-          <t>Build excellent AI matching algorithm</t>
-        </is>
-      </c>
-      <c r="C10" s="14" t="inlineStr">
-        <is>
-          <t>Our 12% commission must feel justified by quality matches</t>
-        </is>
-      </c>
-      <c r="D10" s="14" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="120" customHeight="1">
-      <c r="A11" s="14" t="inlineStr">
-        <is>
-          <t>✓ Verification System</t>
-        </is>
-      </c>
-      <c r="B11" s="14" t="inlineStr">
-        <is>
-          <t>Robust photo upload + attendance tracking</t>
-        </is>
-      </c>
-      <c r="C11" s="14" t="inlineStr">
-        <is>
-          <t>Sponsors need proof their money worked</t>
-        </is>
-      </c>
-      <c r="D11" s="14" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="120" customHeight="1">
-      <c r="A12" s="14" t="inlineStr">
-        <is>
-          <t>✓ Dashboard Savings Display</t>
-        </is>
-      </c>
-      <c r="B12" s="14" t="inlineStr">
-        <is>
-          <t>Show subscribers monthly savings vs 5%</t>
-        </is>
-      </c>
-      <c r="C12" s="14" t="inlineStr">
-        <is>
-          <t>Psychological win every month</t>
-        </is>
-      </c>
-      <c r="D12" s="14" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="120" customHeight="1">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>Ambassador Visibility</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Prominently feature program in UI</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>Users won't discover it unless we surface it</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="120" customHeight="1">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Event Collaboration/Co-hosting</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>Multi-host event collaboration system:
 • Primary &amp; secondary event hosts
@@ -2096,24 +1995,24 @@
 • Track all events under one tour umbrella</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>Game-changer for large-scale events and tours. Creates network effects - hosts bring other hosts. Differentiates us from all competitors who only support single-host events.</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="120" customHeight="1">
-      <c r="A15" s="3" t="inlineStr">
+    <row r="11" ht="120" customHeight="1">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Promoter Referral System</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>Role-based promoter program:
 • Event hosts assign 'promoter' roles
@@ -2124,24 +2023,24 @@
 • Promoters share on Instagram/TikTok stories</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>Viral growth engine. Turns every event into distributed sales team. Promoters are incentivized to drive ticket sales. Event hosts get free marketing.</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="120" customHeight="1">
-      <c r="A16" s="3" t="inlineStr">
+    <row r="12" ht="120" customHeight="1">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>Landing Page Overhaul</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>PRICING: Only 2 tiers:
 • Free: Unlimited events, basic features
@@ -2158,24 +2057,24 @@
 • Prevent competitors from copying our strategy</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>Simplicity converts better. People don't want subscriptions - they want to 'pay when they get paid' or see clear ROI. Hiding competitor intel protects our competitive advantage.</t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="120" customHeight="1">
-      <c r="A17" s="3" t="inlineStr">
+    <row r="13" ht="120" customHeight="1">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Venue Partnership System</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Venue integration features:
 • Venues can create accounts
@@ -2191,24 +2090,24 @@
 • Market domination through venue partnerships</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>This is the ULTIMATE competitive moat. If venues require SponsorSynq, event hosts have no choice. We stop competing on features and own the distribution channel. Venue adoption = market domination.</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="120" customHeight="1">
-      <c r="A18" s="3" t="inlineStr">
+    <row r="14" ht="120" customHeight="1">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>Revenue Stream Documentation</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>Comprehensive revenue analysis:
 • Document ALL current revenue streams
@@ -2220,204 +2119,204 @@
 • Alternative revenue from free event hosts?</t>
         </is>
       </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Need clarity on business model edge cases. Free events still have value (brand awareness, sponsor discovery) but need strategy to ensure sustainable revenue. Must balance growth with monetization.</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="5" customHeight="1"/>
+    <row r="16">
+      <c r="A16" s="14" t="inlineStr">
+        <is>
+          <t>MEDIUM PRIORITY</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="15" t="inlineStr">
+        <is>
+          <t>Area</t>
+        </is>
+      </c>
+      <c r="B17" s="15" t="inlineStr">
+        <is>
+          <t>What To Build/Do</t>
+        </is>
+      </c>
+      <c r="C17" s="15" t="inlineStr">
+        <is>
+          <t>Why It Matters</t>
+        </is>
+      </c>
+      <c r="D17" s="15" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Performance Tracking</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Track Boost &amp; Featured Placement results</t>
+        </is>
+      </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>Need clarity on business model edge cases. Free events still have value (brand awareness, sponsor discovery) but need strategy to ensure sustainable revenue. Must balance growth with monetization.</t>
+          <t>Need data to prove these upgrades work</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="5" customHeight="1"/>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Instant Payout Cap</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Implement 1.5% with $15 max</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>Makes instant payout attractive for large payouts</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+    </row>
     <row r="20">
-      <c r="A20" s="15" t="inlineStr">
-        <is>
-          <t>MEDIUM PRIORITY</t>
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Annual Subscription</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Offer $190/year option</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>Locks in committed hosts, improves predictability</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="16" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>Tiered Boost Options</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>$10/3d, $15/7d, $25/14d</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>Flexibility for different event timelines</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="5" customHeight="1"/>
+    <row r="23">
+      <c r="A23" s="16" t="inlineStr">
+        <is>
+          <t>LOW PRIORITY</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="17" t="inlineStr">
         <is>
           <t>Area</t>
         </is>
       </c>
-      <c r="B21" s="16" t="inlineStr">
+      <c r="B24" s="17" t="inlineStr">
         <is>
           <t>What To Build/Do</t>
         </is>
       </c>
-      <c r="C21" s="16" t="inlineStr">
+      <c r="C24" s="17" t="inlineStr">
         <is>
           <t>Why It Matters</t>
         </is>
       </c>
-      <c r="D21" s="16" t="inlineStr">
+      <c r="D24" s="17" t="inlineStr">
         <is>
           <t>Priority</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>Performance Tracking</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Track Boost &amp; Featured Placement results</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>Need data to prove these upgrades work</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>Instant Payout Cap</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>Implement 1.5% with $15 max</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>Makes instant payout attractive for large payouts</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>Annual Subscription</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Offer $190/year option</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>Locks in committed hosts, improves predictability</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Tiered Boost Options</t>
+          <t>Enterprise Compliance</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>$10/3d, $15/7d, $25/14d</t>
+          <t>Approval workflows, audit trails, SIS integration</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>Flexibility for different event timelines</t>
+          <t>Required for university sales</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="5" customHeight="1"/>
-    <row r="27">
-      <c r="A27" s="17" t="inlineStr">
-        <is>
-          <t>LOW PRIORITY</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="18" t="inlineStr">
-        <is>
-          <t>Area</t>
-        </is>
-      </c>
-      <c r="B28" s="18" t="inlineStr">
-        <is>
-          <t>What To Build/Do</t>
-        </is>
-      </c>
-      <c r="C28" s="18" t="inlineStr">
-        <is>
-          <t>Why It Matters</t>
-        </is>
-      </c>
-      <c r="D28" s="18" t="inlineStr">
-        <is>
-          <t>Priority</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="inlineStr">
-        <is>
-          <t>Enterprise Compliance</t>
-        </is>
-      </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>Approval workflows, audit trails, SIS integration</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>Required for university sales</t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
           <t>LOW</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>Leaderboards</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
+      <c r="B26" s="3" t="inlineStr">
         <is>
           <t>Show top ambassadors</t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr">
+      <c r="C26" s="3" t="inlineStr">
         <is>
           <t>Creates competition, shows what's possible</t>
         </is>
       </c>
-      <c r="D30" s="3" t="inlineStr">
+      <c r="D26" s="3" t="inlineStr">
         <is>
           <t>LOW</t>
         </is>
@@ -2427,13 +2326,13 @@
   <mergeCells count="9">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A23:D23"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A16:D16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/public/SponsorSynq_Competitor_Comparison.xlsx
+++ b/public/SponsorSynq_Competitor_Comparison.xlsx
@@ -2168,12 +2168,20 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Track Boost &amp; Featured Placement results</t>
+          <t>WHAT: Analytics dashboard tracking ROI of paid features
+WHERE: Event host dashboard - 'Marketing Performance' section
+WHEN: After event hosts use Event Boost ($15) or Featured Placement ($29)
+HOW IT WORKS:
+• Track views, clicks, sponsor offers received
+• Compare boosted vs non-boosted events
+• Show ROI: 'You spent $15, received 3 sponsor offers worth $500'
+• Export performance reports
+WHY: Event hosts won't pay for Boost/Featured unless they see proof it works. Need data to justify these upgrades and show clear ROI.</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>Need data to prove these upgrades work</t>
+          <t>Users need proof that paying for Boost/Featured actually brings more sponsors. Without tracking, they won't trust these features are worth the money. Data-driven justification drives adoption.</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -2190,12 +2198,20 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Implement 1.5% with $15 max</t>
+          <t>WHAT: Maximum fee limit on instant payout feature
+WHERE: Payout settings page when event host requests instant transfer
+WHEN: Event host clicks 'Get Paid Now' instead of waiting 3-5 days
+HOW IT WORKS:
+• Current: 1.5% of payout (unlimited)
+• Updated: 1.5% of payout, capped at $15 max
+• Example: $10,000 payout = $15 fee (not $150)
+• Small payouts: $500 = $7.50 (still 1.5%)
+WHY: Large event hosts avoid instant payout because 1.5% of $10K = $150 fee. With a $15 cap, they'll actually use it. Makes feature attractive to high-revenue events.</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>Makes instant payout attractive for large payouts</t>
+          <t>Without a cap, high-earning event hosts see instant payout as too expensive ($150 on $10K). A $15 cap makes it affordable for large events while maintaining revenue on smaller payouts.</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -2212,12 +2228,21 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Offer $190/year option</t>
+          <t>WHAT: Yearly payment option for Pro subscription
+WHERE: Pricing page and subscription settings
+WHEN: Event hosts choose subscription plan (currently $19/month only)
+HOW IT WORKS:
+• Current: $19/month only ($228/year)
+• Add option: $190/year (save $38, ~17% discount)
+• Locks in user for 12 months
+• Same benefits: Waives 5% platform fee, includes Premium Analytics
+• Auto-renewal with option to cancel
+WHY: Annual commitments improve revenue predictability and reduce churn. Users who pay annually are more invested in the platform. Industry standard pricing psychology.</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>Locks in committed hosts, improves predictability</t>
+          <t>Annual subscriptions lock in committed hosts, reduce monthly churn, and improve financial predictability. Users who pay upfront are more likely to actively use the platform to justify their investment.</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -2234,12 +2259,23 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>$10/3d, $15/7d, $25/14d</t>
+          <t>WHAT: Multiple Event Boost pricing tiers based on duration
+WHERE: Event creation/editing page - 'Promote Your Event' section
+WHEN: Event host wants to attract sponsors faster
+HOW IT WORKS:
+• Current: $15 for 7 days only
+• Add tiers:
+  - Quick Boost: $10 for 3 days (last-minute events)
+  - Standard Boost: $15 for 7 days (current option)
+  - Extended Boost: $25 for 14 days (early planning)
+• Shows estimated sponsor reach per tier
+• Can purchase multiple boosts per event
+WHY: Different events have different timelines. Club events (short notice) need 3-day boost. Corporate events (planned ahead) benefit from 14-day visibility. Flexibility increases adoption.</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>Flexibility for different event timelines</t>
+          <t>One-size-fits-all doesn't work. Last-minute events need short boosts, planned events need extended visibility. Tiered pricing captures different customer segments and increases total boost revenue.</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -2286,12 +2322,21 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Approval workflows, audit trails, SIS integration</t>
+          <t>WHAT: University-specific admin features for event oversight
+WHERE: Admin dashboard for university administrators
+WHEN: Universities require institutional control before allowing student event hosting
+HOW IT WORKS:
+• Approval Workflows: Student org submits event → admin reviews/approves before going live
+• Audit Trails: Track who created/edited/approved each event, timestamp everything
+• SIS Integration: Connect to Student Information System to verify student status, majors, orgs
+• Budget Controls: Set spending limits per org, require multi-level approval for large events
+• Compliance Reports: Export event data for Title IX, liability, budget reviews
+WHY: Universities won't adopt without institutional oversight. Legal/compliance departments require approval chains and audit capabilities. This unlocks $10K-25K/year enterprise contracts.</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>Required for university sales</t>
+          <t>Universities have strict compliance requirements (Title IX, budget accountability, liability). Without admin controls and audit trails, they legally cannot let students use the platform. Required for enterprise sales.</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -2308,12 +2353,25 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Show top ambassadors</t>
+          <t>WHAT: Public rankings of top-performing ambassadors
+WHERE: Ambassador dashboard and public leaderboard page
+WHEN: Ambassadors view their stats and compare performance
+HOW IT WORKS:
+• Real-time rankings based on:
+  - Total referrals (new event hosts brought in)
+  - Revenue generated from referrals
+  - Active users (referrals still using platform)
+  - Tier status (Starter, Rising, Elite, Founding)
+• Show top 10 globally, top 3 in user's region
+• Display earnings: 'Top ambassador earned $2,450 this month'
+• Gamification: Badges for milestones (10 referrals, $1K earned, etc.)
+• Monthly resets with Hall of Fame for all-time leaders
+WHY: Shows ambassadors what's possible ('If they earned $2K, I can too'). Creates competitive motivation. Proves the program is real and lucrative. Drives ambassador recruitment and activity.</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>Creates competition, shows what's possible</t>
+          <t>Social proof drives action. When potential ambassadors see others earning $1K+/month, they're motivated to join. Competition pushes existing ambassadors to recruit harder. Makes program feel legitimate and achievable.</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">

--- a/public/SponsorSynq_Competitor_Comparison.xlsx
+++ b/public/SponsorSynq_Competitor_Comparison.xlsx
@@ -567,7 +567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,18 +666,18 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>5% of ticket revenue
-Only on 2nd+ events
-1st event FREE
-Waived with $19/mo subscription</t>
+          <t>5% of ticket revenue (Free tier only)
+Completely WAIVED for $100/mo subscribers
+Breakeven: $2,000/mo in sales
+Clear ROI proposition</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
           <t>~6.6% + $1.79 per ticket
-Changed pricing 11 times
-Removed free tier in 2023
-Confusing structure</t>
+NEVER waived
+Subscription doesn't reduce fees
+Double-dipping on customers</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -689,17 +689,17 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>• Simple &amp; transparent
-• Cheaper than Eventbrite
-• First event free builds trust
-• Subscription waives entirely</t>
+          <t>• Our subscription SAVES money
+• Eventbrite charges subscription AND fees
+• We don't double-dip
+• Rewards active hosts</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>• Publicly commit to pricing stability
-• Never surprise users like Eventbrite did
-• Emphasize 'pay only when you win'</t>
+          <t>• Show live savings calculator on dashboard
+• 'You saved $150 this month by subscribing'
+• Make ROI extremely visible</t>
         </is>
       </c>
     </row>
@@ -711,18 +711,19 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>$19/month for Pro
+          <t>$100/month
 Waives 5% fee entirely
-Includes Premium Analytics ($7 value)
-Breakeven: $380/mo in sales</t>
+Includes re-engagement, promoters, collaboration, premium analytics
+Breakeven: $2,000/mo in sales
+$5K sales = $150 net savings</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
           <t>Pro plans: $15-100/month
-For email marketing limits
 Does NOT waive fees
-You pay subscription AND fees</t>
+Only adds email/marketing features
+You pay subscription AND all fees</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -734,27 +735,72 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>• Subscription SAVES money
+          <t>• Subscription SAVES money (theirs doesn't)
 • Eventbrite double-dips
-• Meetup charges even with no revenue
-• We reward active hosts</t>
+• We include money-making tools
+• Clear economic value</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>• Offer annual discount ($190/yr vs $228)
+          <t>• Offer annual discount ($1,000/yr vs $1,200)
 • Show savings in dashboard monthly
-• Turn subscription into psychological win</t>
+• Emphasize tools that make money, not just save it</t>
         </is>
       </c>
     </row>
     <row r="5" ht="100" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
+          <t>3b. Promoter Commission</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Small % of sales via promoter links
+Host sets commission rate
+We facilitate tracking &amp; payout
+Only $100/mo tier</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>NOTHING
+No promoter tracking system
+Hosts manually track sales
+Prone to errors and disputes</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Traditional affiliate platforms
+Not event-specific
+Require separate integration</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>• Automated affiliate system for events
+• Turns host's network into sales team
+• Only costs when sales happen
+• Unlocks Instagram/TikTok viral marketing</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>• Show promoter ROI data
+• Case studies of successful promoter campaigns
+• Gamification for top promoters</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="100" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
           <t>4. Sponsor Commission</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>12% of sponsor allocations
 Taken before host payout
@@ -762,7 +808,7 @@
 Automatic, no invoice</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>NOTHING
 No sponsor marketplace exists
@@ -770,14 +816,14 @@
 Cold emails, agencies, luck</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>Agencies: 15-25% + retainers
 Influencer platforms: 10-20%
 Ticketmaster: No marketplace</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>• ONLY platform with sponsor marketplace
 • Eventbrite can't compete here
@@ -785,7 +831,7 @@
 • Accessible to any event size</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>• Matching algorithm must be excellent
 • Verification system must be robust
@@ -794,13 +840,13 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="100" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
+    <row r="7" ht="100" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>5. Featured Placement</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>$29 flat fee
 14 days priority placement
@@ -808,7 +854,7 @@
 'Featured' badge</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>Eventbrite Ads: CPC/CPM model
 $50-500+ campaigns
@@ -816,14 +862,14 @@
 Not sponsors→hosts</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>LinkedIn: $30-100 boost
 Indeed: $5-25/day
 Instagram: $1+/day</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>• Simple flat pricing
 • No bidding or budgets
@@ -831,7 +877,7 @@
 • Different use case than competitors</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>• Test price tiers ($15/7d, $29/14d, $49/30d)
 • Track &amp; display performance
@@ -839,28 +885,28 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="100" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
+    <row r="8" ht="100" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>6. Instant Payout</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>1.5% of payout amount
-Same-day deposit
-Standard (3-5 days) is free
-Completely optional</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>1.5% of payout, CAPPED at $15 max
+$500 payout = $7.50 fee
+$10,000 payout = $15 fee (not $150)
+Available to both Free &amp; $100 tiers</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>Standard: 5 business days
-NO instant option
+NO instant option available
 Need money faster? Too bad.</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>Stripe direct: 1%
 DoorDash: $1.99 flat
@@ -868,28 +914,29 @@
 PayPal: 1.75%</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>• We offer it - Eventbrite doesn't
+• $15 cap makes it affordable for large events
 • Competitive with PayPal
-• Meaningful differentiation</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>• Consider flat fee for large payouts
-• Implement cap: 1.5% max $15
-• Communicate value: 'Pay DJ tonight'</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="100" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
+• Available to everyone, not just subscribers</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>• Communicate value: 'Pay your DJ tonight'
+• Show savings vs uncapped fee
+• Emphasize flexibility</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="100" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>7. Premium Analytics</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>$7/month standalone
 Free with Pro subscription
@@ -897,28 +944,28 @@
 Exportable reports</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>Basic: Free
 Advanced: Bundled in $15-100/mo Pro
 Can't buy separately</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>Mixpanel: $20+/mo (general tool)
 Splash: $100s/mo (enterprise)
 Google Analytics: Free (not event-specific)</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>• Event-specific at low price
 • $7/mo accessible to all
 • Free with subscription adds value</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>• Make insights actionable
 • Connect to recommended actions
@@ -927,34 +974,34 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="100" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
+    <row r="10" ht="100" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>8. Event Boost</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>$15 for 7 days
 Priority in sponsor discovery
 Completely optional</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>Eventbrite Ads: $50-500+
 Variable CPC/CPM
 For events→attendees only</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>Instagram boost: $7-70/week
 Facebook boost: ~$14/week
 Both for attendees, not sponsors</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
         <is>
           <t>• Designed to attract SPONSORS
 • Unique product
@@ -962,7 +1009,7 @@
 • Direct ROI vs random reach</t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr">
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>• Track &amp; display performance
 • Show if boost → more offers
@@ -970,13 +1017,13 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="100" customHeight="1">
-      <c r="A10" s="2" t="inlineStr">
+    <row r="11" ht="100" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>9. Enterprise Licensing</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>$10K-25K/year
 Custom branding
@@ -984,7 +1031,7 @@
 Compliance features</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>Custom pricing
 $10Ks-$100Ks/year
@@ -992,21 +1039,21 @@
 Not designed for universities</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>Presence: $10K-50K/yr (no ticketing)
 CampusLabs: $15K-75K/yr (no sponsors)
 Meetup Pro: $2.5K+/yr</t>
         </is>
       </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>• All-in-one: ticketing + sponsors + management
 • Others need multiple tools
 • Designed for student events</t>
         </is>
       </c>
-      <c r="F10" s="3" t="inlineStr">
+      <c r="F11" s="3" t="inlineStr">
         <is>
           <t>• Build admin/compliance features
 • Approval workflows, audit trails
@@ -1015,13 +1062,13 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="100" customHeight="1">
-      <c r="A11" s="2" t="inlineStr">
+    <row r="12" ht="100" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>10. Ambassador Program</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>Tiered rewards:
 • Starter: $15/referral
@@ -1030,7 +1077,7 @@
 • Founding: $30 + 2% rev share</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>Give $10, Get $10
 Caps at $50 total
@@ -1039,7 +1086,7 @@
 One-time only</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>Uber: $5-20 one-time
 Dropbox: Storage bonus
@@ -1047,7 +1094,7 @@
 All one-time, no ongoing</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr">
         <is>
           <t>• Tiered = gamification
 • Revenue share = ongoing stake
@@ -1055,7 +1102,7 @@
 • Ambassadors help referrals succeed</t>
         </is>
       </c>
-      <c r="F11" s="3" t="inlineStr">
+      <c r="F12" s="3" t="inlineStr">
         <is>
           <t>• Surface program prominently
 • Show earnings on dashboard
@@ -1408,7 +1455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1453,7 +1500,8 @@
         <is>
           <t>• Hosts make money they'd never find otherwise
 • This is our #1 differentiator
-• Eventbrite literally cannot compete</t>
+• Eventbrite literally cannot compete
+• 12% commission vs 15-25% traditional agencies</t>
         </is>
       </c>
     </row>
@@ -1473,87 +1521,116 @@
         <is>
           <t>• Different value proposition entirely
 • We're not a cheaper Eventbrite
-• We're a different category</t>
+• We're a different category
+• Sponsors + tickets + collaboration + promoters</t>
         </is>
       </c>
     </row>
     <row r="4" ht="75" customHeight="1">
       <c r="A4" s="8" t="inlineStr">
         <is>
-          <t>3. SUBSCRIPTION ACTUALLY SAVES MONEY</t>
+          <t>3. PAY WHEN YOU GET PAID</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Our $19/mo waives fees
-Their $15-100/mo doesn't</t>
+          <t>Free tier = pay nothing upfront
+Only pay when money flows through platform</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>• Eventbrite double-dips
-• We reward active hosts
-• Clear economic value</t>
+          <t>• Zero risk to try unlimited events
+• Perfect for occasional hosts
+• No subscription anxiety
+• We succeed when they succeed</t>
         </is>
       </c>
     </row>
     <row r="5" ht="75" customHeight="1">
       <c r="A5" s="8" t="inlineStr">
         <is>
-          <t>4. FIRST EVENT FREE</t>
+          <t>4. SUBSCRIPTION THAT ACTUALLY SAVES MONEY</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Zero risk to try
-Experience value before paying</t>
+          <t>$100/mo waives 5% platform fee entirely
+Breakeven at $2,000/mo in ticket sales
+Eventbrite's subscription doesn't waive fees</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>• Builds trust
-• Removes 'what if it doesn't work' anxiety
-• Converts skeptics</t>
+          <t>• Sell $5K/mo = save $250, pay $100 = net $150 savings
+• Eventbrite double-dips (subscription + fees)
+• We reward active hosts
+• Clear ROI, not just features</t>
         </is>
       </c>
     </row>
     <row r="6" ht="75" customHeight="1">
       <c r="A6" s="8" t="inlineStr">
         <is>
-          <t>5. PRICING STABILITY</t>
+          <t>5. PROMOTER REFERRAL SYSTEM</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
+          <t>Turn host's network into distributed sales team
+Unique tracking links, QR codes, auto commissions
+Only $100/mo tier</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>• Viral growth engine for events
+• Free marketing that only costs when sales happen
+• Eventbrite has nothing like this
+• Unlocks Instagram/TikTok promotion</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="75" customHeight="1">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>6. VENUE LOCK-IN STRATEGY</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Partner with venues to require SponsorSynq
+'Want our venue? Use our platform'
+Own the distribution channel</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>• Ultimate competitive moat
+• Eliminates choice, creates necessity
+• Eventbrite/Posh can't compete
+• We own infrastructure, not just features</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="75" customHeight="1">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>7. PRICING STABILITY</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
           <t>We won't surprise users
-They've changed 11 times</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
+They've changed 11 times since 2007</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>• Eventbrite destroyed trust
 • We can win on reliability
-• Public commitment matters</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="75" customHeight="1">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>6. AMBASSADOR PROGRAM</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Tiered rewards + revenue share
-Theirs caps at $50</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>• Creates true evangelists
-• Ongoing stake in platform success
-• Organic growth engine</t>
+• Public commitment matters
+• Hosts need predictability</t>
         </is>
       </c>
     </row>
@@ -1628,7 +1705,7 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>Every ticket</t>
+          <t>Every ticket (both tiers)</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -1645,17 +1722,17 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Host</t>
+          <t>Host (Free tier)</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>5% of revenue</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>2nd+ event, non-subscriber</t>
+          <t>All ticket sales on Free tier</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -1677,17 +1754,17 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>$19/month</t>
+          <t>$100/month</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>Optional, waives 5% fee</t>
+          <t>Optional upgrade, waives 5% fee entirely</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>YES - but doesn't waive fees</t>
+          <t>YES - but theirs doesn't waive fees</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1786,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>Every sponsorship deal</t>
+          <t>Every sponsorship deal (both tiers)</t>
         </is>
       </c>
       <c r="E5" s="5" t="inlineStr">
@@ -1721,34 +1798,34 @@
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>Featured Placement</t>
+          <t>Promoter Commission</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Sponsor</t>
+          <t>Event sales via promoter</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>$29</t>
+          <t>% of sale</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>Optional add-on</t>
+          <t>When promoter link/QR code used ($100 tier only)</t>
         </is>
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>NO - unique product</t>
+          <t>NO - unique automated system</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>Instant Payout</t>
+          <t>Instant Payout Fee</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
@@ -1758,12 +1835,12 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>1.5% (max $15)</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>Optional, on-demand</t>
+          <t>Optional same-day payout (both tiers)</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
@@ -1775,54 +1852,54 @@
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>Premium Analytics</t>
+          <t>Event Boost</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Host</t>
+          <t>Host (Free tier)</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>$7/month</t>
+          <t>$15/7 days</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>Optional (free w/ Pro)</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>PARTIAL - bundled only</t>
+          <t>Optional sponsor visibility boost</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>NO - unique to sponsor discovery</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>Event Boost</t>
+          <t>Featured Placement</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Host</t>
+          <t>Sponsor</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>$15</t>
+          <t>$29/14 days</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>Optional, per event</t>
+          <t>Optional priority placement</t>
         </is>
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
-          <t>NO - unique to sponsors</t>
+          <t>NO - unique product</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1921,7 @@
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>Annual contract</t>
+          <t>Annual contract with compliance features</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -1871,7 +1948,7 @@
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>Successful referrals</t>
+          <t>Successful host referrals</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
@@ -2228,21 +2305,21 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>WHAT: Yearly payment option for Pro subscription
+          <t>WHAT: Yearly payment option for $100/mo subscription
 WHERE: Pricing page and subscription settings
-WHEN: Event hosts choose subscription plan (currently $19/month only)
+WHEN: Event hosts choose subscription plan (currently $100/month only)
 HOW IT WORKS:
-• Current: $19/month only ($228/year)
-• Add option: $190/year (save $38, ~17% discount)
+• Current: $100/month only ($1,200/year)
+• Add option: $1,000/year (save $200, ~17% discount)
 • Locks in user for 12 months
-• Same benefits: Waives 5% platform fee, includes Premium Analytics
+• Same benefits: Waives 5% platform fee, re-engagement, promoters, collaboration, premium analytics
 • Auto-renewal with option to cancel
-WHY: Annual commitments improve revenue predictability and reduce churn. Users who pay annually are more invested in the platform. Industry standard pricing psychology.</t>
+WHY: Annual commitments improve revenue predictability and reduce churn. Users who pay upfront are more invested in the platform. Industry standard pricing psychology.</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>Annual subscriptions lock in committed hosts, reduce monthly churn, and improve financial predictability. Users who pay upfront are more likely to actively use the platform to justify their investment.</t>
+          <t>Annual subscriptions lock in committed hosts, reduce monthly churn, and improve financial predictability. $200 discount incentivizes yearly commitment while maintaining strong revenue per customer.</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
